--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value123.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value123.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.007819402210717</v>
+        <v>0.3880251944065094</v>
       </c>
       <c r="B1">
-        <v>1.773076364444866</v>
+        <v>0.7843900918960571</v>
       </c>
       <c r="C1">
-        <v>4.070193662087786</v>
+        <v>3.191421747207642</v>
       </c>
       <c r="D1">
-        <v>2.440582709409898</v>
+        <v>2.629640579223633</v>
       </c>
       <c r="E1">
-        <v>1.020417745895591</v>
+        <v>0.9633427858352661</v>
       </c>
     </row>
   </sheetData>
